--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Driver.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Driver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="26" activeTab="28"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="51" r:id="rId1"/>
@@ -339,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="727">
   <si>
     <t>Logo</t>
   </si>
@@ -3027,6 +3027,18 @@
   </si>
   <si>
     <t>WDV12A</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Duong</t>
+  </si>
+  <si>
+    <t>Coded</t>
   </si>
 </sst>
 </file>
@@ -4287,33 +4299,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4338,11 +4323,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4515,13 +4527,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4662,6 +4674,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4669,21 +4690,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4695,11 +4701,32 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4730,21 +4757,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8979,8 +8991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9050,9 +9062,11 @@
         <v>52</v>
       </c>
       <c r="F4" s="216"/>
-      <c r="G4" s="56"/>
+      <c r="G4" s="56" t="s">
+        <v>723</v>
+      </c>
       <c r="H4" s="220" t="s">
-        <v>444</v>
+        <v>726</v>
       </c>
       <c r="I4" s="56"/>
     </row>
@@ -9071,9 +9085,11 @@
         <v>52</v>
       </c>
       <c r="F5" s="216"/>
-      <c r="G5" s="56"/>
+      <c r="G5" s="56" t="s">
+        <v>723</v>
+      </c>
       <c r="H5" s="219" t="s">
-        <v>444</v>
+        <v>726</v>
       </c>
       <c r="I5" s="56"/>
     </row>
@@ -9092,8 +9108,12 @@
         <v>52</v>
       </c>
       <c r="F6" s="216"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="G6" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9109,8 +9129,12 @@
         <v>52</v>
       </c>
       <c r="F7" s="216"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9126,8 +9150,12 @@
         <v>52</v>
       </c>
       <c r="F8" s="216"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9143,8 +9171,12 @@
         <v>52</v>
       </c>
       <c r="F9" s="216"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="G9" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9160,8 +9192,12 @@
         <v>52</v>
       </c>
       <c r="F10" s="216"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="G10" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9177,8 +9213,12 @@
         <v>52</v>
       </c>
       <c r="F11" s="216"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>723</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9194,8 +9234,12 @@
         <v>52</v>
       </c>
       <c r="F12" s="216"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9211,8 +9255,12 @@
         <v>52</v>
       </c>
       <c r="F13" s="216"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="G13" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9228,8 +9276,12 @@
         <v>52</v>
       </c>
       <c r="F14" s="216"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="G14" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9245,8 +9297,12 @@
         <v>52</v>
       </c>
       <c r="F15" s="216"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="G15" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9262,8 +9318,12 @@
         <v>52</v>
       </c>
       <c r="F16" s="216"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9279,8 +9339,12 @@
         <v>52</v>
       </c>
       <c r="F17" s="216"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>726</v>
+      </c>
       <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9296,8 +9360,12 @@
         <v>52</v>
       </c>
       <c r="F18" s="216"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="G18" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9313,8 +9381,12 @@
         <v>52</v>
       </c>
       <c r="F19" s="216"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="G19" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9330,8 +9402,12 @@
         <v>52</v>
       </c>
       <c r="F20" s="216"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
+      <c r="G20" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>444</v>
+      </c>
       <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9347,8 +9423,12 @@
         <v>52</v>
       </c>
       <c r="F21" s="216"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
+      <c r="G21" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>444</v>
+      </c>
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9364,8 +9444,12 @@
         <v>52</v>
       </c>
       <c r="F22" s="216"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="G22" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>444</v>
+      </c>
       <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -9381,8 +9465,12 @@
         <v>52</v>
       </c>
       <c r="F23" s="216"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>724</v>
+      </c>
       <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -20398,15 +20486,15 @@
       <c r="P9" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="Q9" s="260" t="s">
+      <c r="Q9" s="251" t="s">
         <v>206</v>
       </c>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="253"/>
       <c r="X9" s="31" t="s">
         <v>330</v>
       </c>
@@ -20450,15 +20538,15 @@
       <c r="P10" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="Q10" s="260" t="s">
+      <c r="Q10" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="262"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="252"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="252"/>
+      <c r="W10" s="253"/>
       <c r="X10" s="31" t="s">
         <v>330</v>
       </c>
@@ -20500,13 +20588,13 @@
       <c r="P11" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="262"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="252"/>
+      <c r="S11" s="252"/>
+      <c r="T11" s="252"/>
+      <c r="U11" s="252"/>
+      <c r="V11" s="252"/>
+      <c r="W11" s="253"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
@@ -20596,15 +20684,15 @@
       <c r="P13" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="260" t="s">
+      <c r="Q13" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="262"/>
+      <c r="R13" s="252"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="253"/>
       <c r="X13" s="31" t="s">
         <v>330</v>
       </c>
@@ -20692,7 +20780,7 @@
       <c r="P15" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="Q15" s="266" t="s">
+      <c r="Q15" s="260" t="s">
         <v>211</v>
       </c>
       <c r="R15" s="319"/>
@@ -20774,14 +20862,14 @@
       <c r="Q17" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="R17" s="260">
+      <c r="R17" s="251">
         <v>912210727</v>
       </c>
-      <c r="S17" s="261"/>
-      <c r="T17" s="261"/>
-      <c r="U17" s="261"/>
-      <c r="V17" s="261"/>
-      <c r="W17" s="262"/>
+      <c r="S17" s="252"/>
+      <c r="T17" s="252"/>
+      <c r="U17" s="252"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
       <c r="X17" s="31" t="s">
         <v>330</v>
       </c>
@@ -20863,7 +20951,7 @@
       <c r="P19" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="266" t="s">
+      <c r="Q19" s="260" t="s">
         <v>216</v>
       </c>
       <c r="R19" s="319"/>
@@ -21189,15 +21277,15 @@
       <c r="P26" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="Q26" s="254" t="s">
+      <c r="Q26" s="256" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="255"/>
-      <c r="S26" s="255"/>
-      <c r="T26" s="255"/>
-      <c r="U26" s="255"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="257"/>
+      <c r="T26" s="257"/>
+      <c r="U26" s="257"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
       <c r="X26" s="38" t="s">
         <v>339</v>
       </c>
@@ -21329,15 +21417,15 @@
       <c r="P29" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="Q29" s="260" t="s">
+      <c r="Q29" s="251" t="s">
         <v>68</v>
       </c>
-      <c r="R29" s="261"/>
-      <c r="S29" s="261"/>
-      <c r="T29" s="261"/>
-      <c r="U29" s="261"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="262"/>
+      <c r="R29" s="252"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="252"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
       <c r="X29" s="38" t="s">
         <v>339</v>
       </c>
@@ -22247,11 +22335,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="AH9:AN15"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
     <mergeCell ref="S28:W28"/>
     <mergeCell ref="Q29:W29"/>
     <mergeCell ref="Q26:W26"/>
@@ -22265,6 +22348,11 @@
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="Q19:W19"/>
     <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="AH9:AN15"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -25379,13 +25467,13 @@
       <c r="P8" s="156" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="261"/>
-      <c r="S8" s="261"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="261"/>
-      <c r="W8" s="262"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="252"/>
+      <c r="S8" s="252"/>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253"/>
       <c r="X8" s="204" t="s">
         <v>330</v>
       </c>
@@ -25455,13 +25543,13 @@
       <c r="P10" s="156" t="s">
         <v>237</v>
       </c>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="262"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="252"/>
+      <c r="S10" s="252"/>
+      <c r="T10" s="252"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="252"/>
+      <c r="W10" s="253"/>
       <c r="X10" s="204" t="s">
         <v>330</v>
       </c>
@@ -25537,13 +25625,13 @@
       <c r="P12" s="156" t="s">
         <v>238</v>
       </c>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="262"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="252"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="253"/>
       <c r="X12" s="204" t="s">
         <v>330</v>
       </c>
@@ -26095,13 +26183,13 @@
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
       <c r="P25" s="156"/>
-      <c r="Q25" s="326"/>
-      <c r="R25" s="326"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="326"/>
-      <c r="U25" s="326"/>
-      <c r="V25" s="326"/>
-      <c r="W25" s="326"/>
+      <c r="Q25" s="324"/>
+      <c r="R25" s="324"/>
+      <c r="S25" s="324"/>
+      <c r="T25" s="324"/>
+      <c r="U25" s="324"/>
+      <c r="V25" s="324"/>
+      <c r="W25" s="324"/>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
@@ -26139,13 +26227,13 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="162"/>
-      <c r="Q26" s="324"/>
-      <c r="R26" s="324"/>
-      <c r="S26" s="324"/>
-      <c r="T26" s="324"/>
-      <c r="U26" s="324"/>
-      <c r="V26" s="324"/>
-      <c r="W26" s="324"/>
+      <c r="Q26" s="326"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
@@ -27169,6 +27257,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q29:W29"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="R17:W17"/>
+    <mergeCell ref="Q19:W19"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
@@ -27179,12 +27273,6 @@
     <mergeCell ref="Q13:W13"/>
     <mergeCell ref="Q14:W14"/>
     <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="Q19:W19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'07.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -28711,15 +28799,15 @@
       <c r="P24" s="156" t="s">
         <v>241</v>
       </c>
-      <c r="Q24" s="260" t="s">
+      <c r="Q24" s="251" t="s">
         <v>251</v>
       </c>
-      <c r="R24" s="261"/>
-      <c r="S24" s="261"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="261"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="262"/>
+      <c r="R24" s="252"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="252"/>
+      <c r="U24" s="252"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="253"/>
       <c r="X24" s="31" t="s">
         <v>330</v>
       </c>
@@ -28815,15 +28903,15 @@
       <c r="P26" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="Q26" s="254" t="s">
+      <c r="Q26" s="256" t="s">
         <v>245</v>
       </c>
-      <c r="R26" s="255"/>
-      <c r="S26" s="255"/>
-      <c r="T26" s="255"/>
-      <c r="U26" s="255"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
+      <c r="R26" s="257"/>
+      <c r="S26" s="257"/>
+      <c r="T26" s="257"/>
+      <c r="U26" s="257"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
       <c r="X26" s="38" t="s">
         <v>340</v>
       </c>
@@ -28911,15 +28999,15 @@
       <c r="P28" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="Q28" s="260" t="s">
+      <c r="Q28" s="251" t="s">
         <v>248</v>
       </c>
-      <c r="R28" s="261"/>
-      <c r="S28" s="261"/>
-      <c r="T28" s="261"/>
-      <c r="U28" s="261"/>
-      <c r="V28" s="261"/>
-      <c r="W28" s="262"/>
+      <c r="R28" s="252"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="252"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="253"/>
       <c r="X28" s="31" t="s">
         <v>330</v>
       </c>
@@ -28959,15 +29047,15 @@
       <c r="P29" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="Q29" s="260" t="s">
+      <c r="Q29" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="R29" s="261"/>
-      <c r="S29" s="261"/>
-      <c r="T29" s="261"/>
-      <c r="U29" s="261"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="262"/>
+      <c r="R29" s="252"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="252"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="253"/>
       <c r="X29" s="31" t="s">
         <v>330</v>
       </c>
@@ -29009,15 +29097,15 @@
       <c r="P30" s="156" t="s">
         <v>250</v>
       </c>
-      <c r="Q30" s="260" t="s">
+      <c r="Q30" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="R30" s="261"/>
-      <c r="S30" s="261"/>
-      <c r="T30" s="261"/>
-      <c r="U30" s="261"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="262"/>
+      <c r="R30" s="252"/>
+      <c r="S30" s="252"/>
+      <c r="T30" s="252"/>
+      <c r="U30" s="252"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="253"/>
       <c r="X30" s="31" t="s">
         <v>330</v>
       </c>
@@ -29883,11 +29971,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="B1:G4"/>
     <mergeCell ref="Q30:W30"/>
     <mergeCell ref="L9:AN21"/>
     <mergeCell ref="Q26:W26"/>
@@ -29896,6 +29979,11 @@
     <mergeCell ref="Y24:AB24"/>
     <mergeCell ref="Q27:W27"/>
     <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="B1:G4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -38460,7 +38548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
@@ -47721,7 +47809,7 @@
       <c r="R13" s="157" t="s">
         <v>372</v>
       </c>
-      <c r="S13" s="266" t="s">
+      <c r="S13" s="260" t="s">
         <v>373</v>
       </c>
       <c r="T13" s="319"/>
@@ -47860,17 +47948,17 @@
       <c r="Q16" s="162" t="s">
         <v>364</v>
       </c>
-      <c r="R16" s="254" t="s">
+      <c r="R16" s="256" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="255"/>
-      <c r="T16" s="255"/>
-      <c r="U16" s="255"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="255"/>
-      <c r="X16" s="255"/>
-      <c r="Y16" s="255"/>
-      <c r="Z16" s="256"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="257"/>
+      <c r="X16" s="257"/>
+      <c r="Y16" s="257"/>
+      <c r="Z16" s="258"/>
       <c r="AA16" s="31" t="s">
         <v>330</v>
       </c>
@@ -48042,17 +48130,17 @@
       <c r="Q20" s="156" t="s">
         <v>375</v>
       </c>
-      <c r="R20" s="260" t="s">
+      <c r="R20" s="251" t="s">
         <v>370</v>
       </c>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="261"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="261"/>
-      <c r="X20" s="261"/>
-      <c r="Y20" s="261"/>
-      <c r="Z20" s="262"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="252"/>
+      <c r="U20" s="252"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="252"/>
+      <c r="X20" s="252"/>
+      <c r="Y20" s="252"/>
+      <c r="Z20" s="253"/>
       <c r="AA20" s="31" t="s">
         <v>330</v>
       </c>
@@ -49343,6 +49431,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="S28:W28"/>
     <mergeCell ref="Q29:W29"/>
     <mergeCell ref="R11:Z11"/>
@@ -49350,12 +49444,6 @@
     <mergeCell ref="S13:Z13"/>
     <mergeCell ref="R16:Z16"/>
     <mergeCell ref="R20:Z20"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" location="'07.ContactInfo'!A1" display="Thông Tin Liên Hệ"/>
@@ -52408,13 +52496,13 @@
       <c r="P16" s="162" t="s">
         <v>333</v>
       </c>
-      <c r="Q16" s="254"/>
-      <c r="R16" s="255"/>
-      <c r="S16" s="255"/>
-      <c r="T16" s="255"/>
-      <c r="U16" s="255"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="258"/>
       <c r="X16" s="31" t="s">
         <v>330</v>
       </c>
@@ -52504,13 +52592,13 @@
       <c r="P18" s="156" t="s">
         <v>334</v>
       </c>
-      <c r="Q18" s="260"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="261"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="262"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
       <c r="X18" s="31" t="s">
         <v>330</v>
       </c>
@@ -52550,13 +52638,13 @@
       <c r="P19" s="156" t="s">
         <v>335</v>
       </c>
-      <c r="Q19" s="260"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="262"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="252"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="252"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
       <c r="X19" s="31" t="s">
         <v>330</v>
       </c>
@@ -52596,13 +52684,13 @@
       <c r="P20" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="Q20" s="260"/>
-      <c r="R20" s="261"/>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="261"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="262"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="252"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="252"/>
+      <c r="U20" s="252"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
       <c r="X20" s="31" t="s">
         <v>332</v>
       </c>
@@ -53606,12 +53694,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q14:AD14"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
@@ -53620,6 +53702,12 @@
     <mergeCell ref="Q16:W16"/>
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q14:AD14"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:W20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -54247,22 +54335,22 @@
       <c r="P14" s="156" t="s">
         <v>331</v>
       </c>
-      <c r="Q14" s="260" t="s">
+      <c r="Q14" s="251" t="s">
         <v>323</v>
       </c>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="261"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="262"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="253"/>
       <c r="AE14" s="38" t="s">
         <v>322</v>
       </c>
@@ -54347,13 +54435,13 @@
       <c r="P16" s="162" t="s">
         <v>333</v>
       </c>
-      <c r="Q16" s="254"/>
-      <c r="R16" s="255"/>
-      <c r="S16" s="255"/>
-      <c r="T16" s="255"/>
-      <c r="U16" s="255"/>
-      <c r="V16" s="255"/>
-      <c r="W16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="257"/>
+      <c r="S16" s="257"/>
+      <c r="T16" s="257"/>
+      <c r="U16" s="257"/>
+      <c r="V16" s="257"/>
+      <c r="W16" s="258"/>
       <c r="X16" s="31" t="s">
         <v>330</v>
       </c>
@@ -54443,13 +54531,13 @@
       <c r="P18" s="156" t="s">
         <v>334</v>
       </c>
-      <c r="Q18" s="260"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="261"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="262"/>
+      <c r="Q18" s="251"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="253"/>
       <c r="X18" s="31" t="s">
         <v>330</v>
       </c>
@@ -54489,13 +54577,13 @@
       <c r="P19" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="Q19" s="260"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="262"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="252"/>
+      <c r="S19" s="252"/>
+      <c r="T19" s="252"/>
+      <c r="U19" s="252"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="253"/>
       <c r="X19" s="31" t="s">
         <v>330</v>
       </c>
@@ -54535,13 +54623,13 @@
       <c r="P20" s="156" t="s">
         <v>336</v>
       </c>
-      <c r="Q20" s="260"/>
-      <c r="R20" s="261"/>
-      <c r="S20" s="261"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="261"/>
-      <c r="V20" s="261"/>
-      <c r="W20" s="262"/>
+      <c r="Q20" s="251"/>
+      <c r="R20" s="252"/>
+      <c r="S20" s="252"/>
+      <c r="T20" s="252"/>
+      <c r="U20" s="252"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="253"/>
       <c r="X20" s="38" t="s">
         <v>338</v>
       </c>
@@ -55551,6 +55639,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="Q16:W16"/>
     <mergeCell ref="Z16:AD16"/>
     <mergeCell ref="B1:G4"/>
@@ -55558,13 +55653,6 @@
     <mergeCell ref="Q14:AD14"/>
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -56190,22 +56278,22 @@
       <c r="P14" s="156" t="s">
         <v>302</v>
       </c>
-      <c r="Q14" s="260" t="s">
+      <c r="Q14" s="251" t="s">
         <v>323</v>
       </c>
-      <c r="R14" s="261"/>
-      <c r="S14" s="261"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="261"/>
-      <c r="V14" s="261"/>
-      <c r="W14" s="261"/>
-      <c r="X14" s="261"/>
-      <c r="Y14" s="261"/>
-      <c r="Z14" s="261"/>
-      <c r="AA14" s="261"/>
-      <c r="AB14" s="261"/>
-      <c r="AC14" s="261"/>
-      <c r="AD14" s="262"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="253"/>
       <c r="AE14" s="38" t="s">
         <v>322</v>
       </c>
@@ -56240,26 +56328,26 @@
       <c r="P15" s="156" t="s">
         <v>303</v>
       </c>
-      <c r="Q15" s="381" t="s">
+      <c r="Q15" s="379" t="s">
         <v>327</v>
       </c>
-      <c r="R15" s="382"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="382"/>
-      <c r="U15" s="382"/>
-      <c r="V15" s="382"/>
-      <c r="W15" s="383"/>
+      <c r="R15" s="380"/>
+      <c r="S15" s="380"/>
+      <c r="T15" s="380"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="380"/>
+      <c r="W15" s="381"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="Z15" s="373">
+      <c r="Z15" s="376">
         <v>0.9</v>
       </c>
-      <c r="AA15" s="374"/>
-      <c r="AB15" s="374"/>
-      <c r="AC15" s="374"/>
-      <c r="AD15" s="375"/>
+      <c r="AA15" s="377"/>
+      <c r="AB15" s="377"/>
+      <c r="AC15" s="377"/>
+      <c r="AD15" s="378"/>
       <c r="AE15" s="38" t="s">
         <v>305</v>
       </c>
@@ -56292,26 +56380,26 @@
       <c r="P16" s="162" t="s">
         <v>306</v>
       </c>
-      <c r="Q16" s="378">
+      <c r="Q16" s="373">
         <v>11.2</v>
       </c>
-      <c r="R16" s="379"/>
-      <c r="S16" s="379"/>
-      <c r="T16" s="379"/>
-      <c r="U16" s="379"/>
-      <c r="V16" s="379"/>
-      <c r="W16" s="380"/>
+      <c r="R16" s="374"/>
+      <c r="S16" s="374"/>
+      <c r="T16" s="374"/>
+      <c r="U16" s="374"/>
+      <c r="V16" s="374"/>
+      <c r="W16" s="375"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="Z16" s="373">
+      <c r="Z16" s="376">
         <v>20</v>
       </c>
-      <c r="AA16" s="374"/>
-      <c r="AB16" s="374"/>
-      <c r="AC16" s="374"/>
-      <c r="AD16" s="375"/>
+      <c r="AA16" s="377"/>
+      <c r="AB16" s="377"/>
+      <c r="AC16" s="377"/>
+      <c r="AD16" s="378"/>
       <c r="AE16" s="38" t="s">
         <v>307</v>
       </c>
@@ -56344,15 +56432,15 @@
       <c r="P17" s="156" t="s">
         <v>306</v>
       </c>
-      <c r="Q17" s="373">
+      <c r="Q17" s="376">
         <v>10.5</v>
       </c>
-      <c r="R17" s="374"/>
-      <c r="S17" s="374"/>
-      <c r="T17" s="374"/>
-      <c r="U17" s="374"/>
-      <c r="V17" s="374"/>
-      <c r="W17" s="375"/>
+      <c r="R17" s="377"/>
+      <c r="S17" s="377"/>
+      <c r="T17" s="377"/>
+      <c r="U17" s="377"/>
+      <c r="V17" s="377"/>
+      <c r="W17" s="378"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38" t="s">
         <v>328</v>
@@ -56392,15 +56480,15 @@
       <c r="P18" s="156" t="s">
         <v>308</v>
       </c>
-      <c r="Q18" s="373">
+      <c r="Q18" s="376">
         <v>50</v>
       </c>
-      <c r="R18" s="374"/>
-      <c r="S18" s="374"/>
-      <c r="T18" s="374"/>
-      <c r="U18" s="374"/>
-      <c r="V18" s="374"/>
-      <c r="W18" s="375"/>
+      <c r="R18" s="377"/>
+      <c r="S18" s="377"/>
+      <c r="T18" s="377"/>
+      <c r="U18" s="377"/>
+      <c r="V18" s="377"/>
+      <c r="W18" s="378"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
@@ -56438,15 +56526,15 @@
       <c r="P19" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="Q19" s="376">
+      <c r="Q19" s="382">
         <v>0.5</v>
       </c>
-      <c r="R19" s="374"/>
-      <c r="S19" s="374"/>
-      <c r="T19" s="374"/>
-      <c r="U19" s="374"/>
-      <c r="V19" s="374"/>
-      <c r="W19" s="375"/>
+      <c r="R19" s="377"/>
+      <c r="S19" s="377"/>
+      <c r="T19" s="377"/>
+      <c r="U19" s="377"/>
+      <c r="V19" s="377"/>
+      <c r="W19" s="378"/>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
@@ -56484,15 +56572,15 @@
       <c r="P20" s="156" t="s">
         <v>310</v>
       </c>
-      <c r="Q20" s="377" t="s">
+      <c r="Q20" s="383" t="s">
         <v>296</v>
       </c>
-      <c r="R20" s="374"/>
-      <c r="S20" s="374"/>
-      <c r="T20" s="374"/>
-      <c r="U20" s="374"/>
-      <c r="V20" s="374"/>
-      <c r="W20" s="375"/>
+      <c r="R20" s="377"/>
+      <c r="S20" s="377"/>
+      <c r="T20" s="377"/>
+      <c r="U20" s="377"/>
+      <c r="V20" s="377"/>
+      <c r="W20" s="378"/>
       <c r="X20" s="38" t="s">
         <v>311</v>
       </c>
@@ -57496,6 +57584,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="Q16:W16"/>
     <mergeCell ref="Z16:AD16"/>
     <mergeCell ref="B1:G4"/>
@@ -57503,13 +57598,6 @@
     <mergeCell ref="Q14:AD14"/>
     <mergeCell ref="Q15:W15"/>
     <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
@@ -57885,22 +57973,22 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="248"/>
-      <c r="O9" s="249"/>
-      <c r="P9" s="249"/>
-      <c r="Q9" s="249"/>
-      <c r="R9" s="249"/>
-      <c r="S9" s="249"/>
-      <c r="T9" s="249"/>
-      <c r="U9" s="249"/>
-      <c r="V9" s="249"/>
-      <c r="W9" s="249"/>
-      <c r="X9" s="249"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="249"/>
-      <c r="AA9" s="249"/>
-      <c r="AB9" s="249"/>
-      <c r="AC9" s="250"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="262"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="262"/>
+      <c r="T9" s="262"/>
+      <c r="U9" s="262"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="263"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
@@ -59190,24 +59278,24 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="264" t="s">
+      <c r="N7" s="255" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="264"/>
-      <c r="P7" s="264"/>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="264"/>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="264"/>
-      <c r="AC7" s="264"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="255"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="255"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="255"/>
+      <c r="Y7" s="255"/>
+      <c r="Z7" s="255"/>
+      <c r="AA7" s="255"/>
+      <c r="AB7" s="255"/>
+      <c r="AC7" s="255"/>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
@@ -59234,24 +59322,24 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
-      <c r="N8" s="263" t="s">
+      <c r="N8" s="254" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="263"/>
-      <c r="P8" s="263"/>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="263"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="263"/>
-      <c r="V8" s="263"/>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
+      <c r="V8" s="254"/>
+      <c r="W8" s="254"/>
+      <c r="X8" s="254"/>
+      <c r="Y8" s="254"/>
+      <c r="Z8" s="254"/>
+      <c r="AA8" s="254"/>
+      <c r="AB8" s="254"/>
+      <c r="AC8" s="254"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
@@ -59320,24 +59408,24 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="264" t="s">
+      <c r="N10" s="255" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="264"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="264"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
-      <c r="Y10" s="264"/>
-      <c r="Z10" s="264"/>
-      <c r="AA10" s="264"/>
-      <c r="AB10" s="264"/>
-      <c r="AC10" s="264"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="255"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="255"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="255"/>
+      <c r="Z10" s="255"/>
+      <c r="AA10" s="255"/>
+      <c r="AB10" s="255"/>
+      <c r="AC10" s="255"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
@@ -59423,25 +59511,25 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="254" t="s">
+      <c r="N13" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="255"/>
-      <c r="P13" s="255"/>
-      <c r="Q13" s="255"/>
-      <c r="R13" s="255"/>
-      <c r="S13" s="256"/>
-      <c r="U13" s="254" t="s">
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="258"/>
+      <c r="U13" s="256" t="s">
         <v>63</v>
       </c>
-      <c r="V13" s="255"/>
-      <c r="W13" s="255"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="255"/>
-      <c r="Z13" s="255"/>
-      <c r="AA13" s="255"/>
-      <c r="AB13" s="255"/>
-      <c r="AC13" s="256"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="257"/>
+      <c r="X13" s="257"/>
+      <c r="Y13" s="257"/>
+      <c r="Z13" s="257"/>
+      <c r="AA13" s="257"/>
+      <c r="AB13" s="257"/>
+      <c r="AC13" s="258"/>
       <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
@@ -59662,24 +59750,24 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="265" t="s">
+      <c r="N21" s="259" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="265"/>
-      <c r="P21" s="265"/>
-      <c r="Q21" s="265"/>
-      <c r="R21" s="265"/>
-      <c r="S21" s="265"/>
-      <c r="T21" s="265"/>
-      <c r="U21" s="265"/>
-      <c r="V21" s="265"/>
-      <c r="W21" s="265"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
+      <c r="O21" s="259"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="259"/>
+      <c r="S21" s="259"/>
+      <c r="T21" s="259"/>
+      <c r="U21" s="259"/>
+      <c r="V21" s="259"/>
+      <c r="W21" s="259"/>
+      <c r="X21" s="259"/>
+      <c r="Y21" s="259"/>
+      <c r="Z21" s="259"/>
+      <c r="AA21" s="259"/>
+      <c r="AB21" s="259"/>
+      <c r="AC21" s="259"/>
       <c r="AD21" s="38"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="38"/>
@@ -59750,24 +59838,24 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="260" t="s">
+      <c r="N23" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="261"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="261"/>
-      <c r="S23" s="261"/>
-      <c r="T23" s="261"/>
-      <c r="U23" s="261"/>
-      <c r="V23" s="261"/>
-      <c r="W23" s="261"/>
-      <c r="X23" s="261"/>
-      <c r="Y23" s="261"/>
-      <c r="Z23" s="261"/>
-      <c r="AA23" s="261"/>
-      <c r="AB23" s="261"/>
-      <c r="AC23" s="262"/>
+      <c r="O23" s="252"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="252"/>
+      <c r="R23" s="252"/>
+      <c r="S23" s="252"/>
+      <c r="T23" s="252"/>
+      <c r="U23" s="252"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="252"/>
+      <c r="X23" s="252"/>
+      <c r="Y23" s="252"/>
+      <c r="Z23" s="252"/>
+      <c r="AA23" s="252"/>
+      <c r="AB23" s="252"/>
+      <c r="AC23" s="253"/>
       <c r="AD23" s="38"/>
       <c r="AE23" s="38"/>
       <c r="AF23" s="38"/>
@@ -59864,24 +59952,24 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="260" t="s">
+      <c r="N26" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="261"/>
-      <c r="S26" s="261"/>
-      <c r="T26" s="261"/>
-      <c r="U26" s="261"/>
-      <c r="V26" s="261"/>
-      <c r="W26" s="261"/>
-      <c r="X26" s="261"/>
-      <c r="Y26" s="261"/>
-      <c r="Z26" s="261"/>
-      <c r="AA26" s="261"/>
-      <c r="AB26" s="261"/>
-      <c r="AC26" s="262"/>
+      <c r="O26" s="252"/>
+      <c r="P26" s="252"/>
+      <c r="Q26" s="252"/>
+      <c r="R26" s="252"/>
+      <c r="S26" s="252"/>
+      <c r="T26" s="252"/>
+      <c r="U26" s="252"/>
+      <c r="V26" s="252"/>
+      <c r="W26" s="252"/>
+      <c r="X26" s="252"/>
+      <c r="Y26" s="252"/>
+      <c r="Z26" s="252"/>
+      <c r="AA26" s="252"/>
+      <c r="AB26" s="252"/>
+      <c r="AC26" s="253"/>
       <c r="AD26" s="38"/>
       <c r="AE26" s="38"/>
       <c r="AF26" s="38"/>
@@ -59934,24 +60022,24 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="265" t="s">
+      <c r="N28" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="O28" s="265"/>
-      <c r="P28" s="265"/>
-      <c r="Q28" s="265"/>
-      <c r="R28" s="265"/>
-      <c r="S28" s="265"/>
-      <c r="T28" s="265"/>
-      <c r="U28" s="265"/>
-      <c r="V28" s="265"/>
-      <c r="W28" s="265"/>
-      <c r="X28" s="265"/>
-      <c r="Y28" s="265"/>
-      <c r="Z28" s="265"/>
-      <c r="AA28" s="265"/>
-      <c r="AB28" s="265"/>
-      <c r="AC28" s="265"/>
+      <c r="O28" s="259"/>
+      <c r="P28" s="259"/>
+      <c r="Q28" s="259"/>
+      <c r="R28" s="259"/>
+      <c r="S28" s="259"/>
+      <c r="T28" s="259"/>
+      <c r="U28" s="259"/>
+      <c r="V28" s="259"/>
+      <c r="W28" s="259"/>
+      <c r="X28" s="259"/>
+      <c r="Y28" s="259"/>
+      <c r="Z28" s="259"/>
+      <c r="AA28" s="259"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="259"/>
       <c r="AD28" s="38"/>
       <c r="AE28" s="38"/>
       <c r="AF28" s="38"/>
@@ -60007,22 +60095,22 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="251"/>
-      <c r="O30" s="252"/>
-      <c r="P30" s="252"/>
-      <c r="Q30" s="252"/>
-      <c r="R30" s="252"/>
-      <c r="S30" s="252"/>
-      <c r="T30" s="252"/>
-      <c r="U30" s="252"/>
-      <c r="V30" s="252"/>
-      <c r="W30" s="252"/>
-      <c r="X30" s="252"/>
-      <c r="Y30" s="252"/>
-      <c r="Z30" s="252"/>
-      <c r="AA30" s="252"/>
-      <c r="AB30" s="252"/>
-      <c r="AC30" s="253"/>
+      <c r="N30" s="264"/>
+      <c r="O30" s="265"/>
+      <c r="P30" s="265"/>
+      <c r="Q30" s="265"/>
+      <c r="R30" s="265"/>
+      <c r="S30" s="265"/>
+      <c r="T30" s="265"/>
+      <c r="U30" s="265"/>
+      <c r="V30" s="265"/>
+      <c r="W30" s="265"/>
+      <c r="X30" s="265"/>
+      <c r="Y30" s="265"/>
+      <c r="Z30" s="265"/>
+      <c r="AA30" s="265"/>
+      <c r="AB30" s="265"/>
+      <c r="AC30" s="266"/>
       <c r="AD30" s="38"/>
       <c r="AE30" s="38"/>
       <c r="AF30" s="38"/>
@@ -60107,24 +60195,24 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="254" t="s">
+      <c r="N33" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="O33" s="255"/>
-      <c r="P33" s="255"/>
-      <c r="Q33" s="255"/>
-      <c r="R33" s="255"/>
-      <c r="S33" s="255"/>
-      <c r="T33" s="255"/>
-      <c r="U33" s="255"/>
-      <c r="V33" s="255"/>
-      <c r="W33" s="255"/>
-      <c r="X33" s="255"/>
-      <c r="Y33" s="255"/>
-      <c r="Z33" s="255"/>
-      <c r="AA33" s="255"/>
-      <c r="AB33" s="255"/>
-      <c r="AC33" s="256"/>
+      <c r="O33" s="257"/>
+      <c r="P33" s="257"/>
+      <c r="Q33" s="257"/>
+      <c r="R33" s="257"/>
+      <c r="S33" s="257"/>
+      <c r="T33" s="257"/>
+      <c r="U33" s="257"/>
+      <c r="V33" s="257"/>
+      <c r="W33" s="257"/>
+      <c r="X33" s="257"/>
+      <c r="Y33" s="257"/>
+      <c r="Z33" s="257"/>
+      <c r="AA33" s="257"/>
+      <c r="AB33" s="257"/>
+      <c r="AC33" s="258"/>
       <c r="AD33" s="38"/>
       <c r="AE33" s="38"/>
       <c r="AF33" s="38"/>
@@ -60195,24 +60283,24 @@
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="254" t="s">
+      <c r="N35" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="O35" s="255"/>
-      <c r="P35" s="255"/>
-      <c r="Q35" s="255"/>
-      <c r="R35" s="255"/>
-      <c r="S35" s="255"/>
-      <c r="T35" s="255"/>
-      <c r="U35" s="255"/>
-      <c r="V35" s="255"/>
-      <c r="W35" s="255"/>
-      <c r="X35" s="255"/>
-      <c r="Y35" s="255"/>
-      <c r="Z35" s="255"/>
-      <c r="AA35" s="255"/>
-      <c r="AB35" s="255"/>
-      <c r="AC35" s="256"/>
+      <c r="O35" s="257"/>
+      <c r="P35" s="257"/>
+      <c r="Q35" s="257"/>
+      <c r="R35" s="257"/>
+      <c r="S35" s="257"/>
+      <c r="T35" s="257"/>
+      <c r="U35" s="257"/>
+      <c r="V35" s="257"/>
+      <c r="W35" s="257"/>
+      <c r="X35" s="257"/>
+      <c r="Y35" s="257"/>
+      <c r="Z35" s="257"/>
+      <c r="AA35" s="257"/>
+      <c r="AB35" s="257"/>
+      <c r="AC35" s="258"/>
       <c r="AD35" s="38"/>
       <c r="AE35" s="38"/>
       <c r="AF35" s="38"/>
@@ -60282,24 +60370,24 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="254" t="s">
+      <c r="N37" s="256" t="s">
         <v>113</v>
       </c>
-      <c r="O37" s="255"/>
-      <c r="P37" s="255"/>
-      <c r="Q37" s="255"/>
-      <c r="R37" s="255"/>
-      <c r="S37" s="255"/>
-      <c r="T37" s="255"/>
-      <c r="U37" s="255"/>
-      <c r="V37" s="255"/>
-      <c r="W37" s="255"/>
-      <c r="X37" s="255"/>
-      <c r="Y37" s="255"/>
-      <c r="Z37" s="255"/>
-      <c r="AA37" s="255"/>
-      <c r="AB37" s="255"/>
-      <c r="AC37" s="256"/>
+      <c r="O37" s="257"/>
+      <c r="P37" s="257"/>
+      <c r="Q37" s="257"/>
+      <c r="R37" s="257"/>
+      <c r="S37" s="257"/>
+      <c r="T37" s="257"/>
+      <c r="U37" s="257"/>
+      <c r="V37" s="257"/>
+      <c r="W37" s="257"/>
+      <c r="X37" s="257"/>
+      <c r="Y37" s="257"/>
+      <c r="Z37" s="257"/>
+      <c r="AA37" s="257"/>
+      <c r="AB37" s="257"/>
+      <c r="AC37" s="258"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
@@ -60370,24 +60458,24 @@
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="248" t="s">
+      <c r="N39" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="249"/>
-      <c r="P39" s="249"/>
-      <c r="Q39" s="249"/>
-      <c r="R39" s="249"/>
-      <c r="S39" s="249"/>
-      <c r="T39" s="249"/>
-      <c r="U39" s="249"/>
-      <c r="V39" s="249"/>
-      <c r="W39" s="249"/>
-      <c r="X39" s="249"/>
-      <c r="Y39" s="249"/>
-      <c r="Z39" s="249"/>
-      <c r="AA39" s="249"/>
-      <c r="AB39" s="249"/>
-      <c r="AC39" s="250"/>
+      <c r="O39" s="262"/>
+      <c r="P39" s="262"/>
+      <c r="Q39" s="262"/>
+      <c r="R39" s="262"/>
+      <c r="S39" s="262"/>
+      <c r="T39" s="262"/>
+      <c r="U39" s="262"/>
+      <c r="V39" s="262"/>
+      <c r="W39" s="262"/>
+      <c r="X39" s="262"/>
+      <c r="Y39" s="262"/>
+      <c r="Z39" s="262"/>
+      <c r="AA39" s="262"/>
+      <c r="AB39" s="262"/>
+      <c r="AC39" s="263"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
@@ -60458,22 +60546,22 @@
       <c r="K41" s="38"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
-      <c r="N41" s="248"/>
-      <c r="O41" s="249"/>
-      <c r="P41" s="249"/>
-      <c r="Q41" s="249"/>
-      <c r="R41" s="249"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="249"/>
-      <c r="U41" s="249"/>
-      <c r="V41" s="249"/>
-      <c r="W41" s="249"/>
-      <c r="X41" s="249"/>
-      <c r="Y41" s="249"/>
-      <c r="Z41" s="249"/>
-      <c r="AA41" s="249"/>
-      <c r="AB41" s="249"/>
-      <c r="AC41" s="250"/>
+      <c r="N41" s="261"/>
+      <c r="O41" s="262"/>
+      <c r="P41" s="262"/>
+      <c r="Q41" s="262"/>
+      <c r="R41" s="262"/>
+      <c r="S41" s="262"/>
+      <c r="T41" s="262"/>
+      <c r="U41" s="262"/>
+      <c r="V41" s="262"/>
+      <c r="W41" s="262"/>
+      <c r="X41" s="262"/>
+      <c r="Y41" s="262"/>
+      <c r="Z41" s="262"/>
+      <c r="AA41" s="262"/>
+      <c r="AB41" s="262"/>
+      <c r="AC41" s="263"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
@@ -60544,24 +60632,24 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="266" t="s">
+      <c r="N43" s="260" t="s">
         <v>116</v>
       </c>
-      <c r="O43" s="261"/>
-      <c r="P43" s="261"/>
-      <c r="Q43" s="261"/>
-      <c r="R43" s="261"/>
-      <c r="S43" s="261"/>
-      <c r="T43" s="261"/>
-      <c r="U43" s="261"/>
-      <c r="V43" s="261"/>
-      <c r="W43" s="261"/>
-      <c r="X43" s="261"/>
-      <c r="Y43" s="261"/>
-      <c r="Z43" s="261"/>
-      <c r="AA43" s="261"/>
-      <c r="AB43" s="261"/>
-      <c r="AC43" s="262"/>
+      <c r="O43" s="252"/>
+      <c r="P43" s="252"/>
+      <c r="Q43" s="252"/>
+      <c r="R43" s="252"/>
+      <c r="S43" s="252"/>
+      <c r="T43" s="252"/>
+      <c r="U43" s="252"/>
+      <c r="V43" s="252"/>
+      <c r="W43" s="252"/>
+      <c r="X43" s="252"/>
+      <c r="Y43" s="252"/>
+      <c r="Z43" s="252"/>
+      <c r="AA43" s="252"/>
+      <c r="AB43" s="252"/>
+      <c r="AC43" s="253"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
@@ -61127,50 +61215,50 @@
       <c r="B59" s="88">
         <v>2</v>
       </c>
-      <c r="C59" s="257" t="s">
+      <c r="C59" s="248" t="s">
         <v>352</v>
       </c>
-      <c r="D59" s="258"/>
-      <c r="E59" s="258"/>
-      <c r="F59" s="258"/>
-      <c r="G59" s="258"/>
-      <c r="H59" s="258"/>
-      <c r="I59" s="258"/>
-      <c r="J59" s="258"/>
-      <c r="K59" s="258"/>
-      <c r="L59" s="258"/>
-      <c r="M59" s="258"/>
-      <c r="N59" s="258"/>
-      <c r="O59" s="258"/>
-      <c r="P59" s="258"/>
-      <c r="Q59" s="258"/>
-      <c r="R59" s="258"/>
-      <c r="S59" s="258"/>
-      <c r="T59" s="258"/>
-      <c r="U59" s="258"/>
-      <c r="V59" s="258"/>
-      <c r="W59" s="258"/>
-      <c r="X59" s="258"/>
-      <c r="Y59" s="258"/>
-      <c r="Z59" s="258"/>
-      <c r="AA59" s="258"/>
-      <c r="AB59" s="258"/>
-      <c r="AC59" s="258"/>
-      <c r="AD59" s="258"/>
-      <c r="AE59" s="258"/>
-      <c r="AF59" s="258"/>
-      <c r="AG59" s="258"/>
-      <c r="AH59" s="258"/>
-      <c r="AI59" s="258"/>
-      <c r="AJ59" s="258"/>
-      <c r="AK59" s="258"/>
-      <c r="AL59" s="258"/>
-      <c r="AM59" s="258"/>
-      <c r="AN59" s="258"/>
-      <c r="AO59" s="258"/>
-      <c r="AP59" s="258"/>
-      <c r="AQ59" s="258"/>
-      <c r="AR59" s="259"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="249"/>
+      <c r="G59" s="249"/>
+      <c r="H59" s="249"/>
+      <c r="I59" s="249"/>
+      <c r="J59" s="249"/>
+      <c r="K59" s="249"/>
+      <c r="L59" s="249"/>
+      <c r="M59" s="249"/>
+      <c r="N59" s="249"/>
+      <c r="O59" s="249"/>
+      <c r="P59" s="249"/>
+      <c r="Q59" s="249"/>
+      <c r="R59" s="249"/>
+      <c r="S59" s="249"/>
+      <c r="T59" s="249"/>
+      <c r="U59" s="249"/>
+      <c r="V59" s="249"/>
+      <c r="W59" s="249"/>
+      <c r="X59" s="249"/>
+      <c r="Y59" s="249"/>
+      <c r="Z59" s="249"/>
+      <c r="AA59" s="249"/>
+      <c r="AB59" s="249"/>
+      <c r="AC59" s="249"/>
+      <c r="AD59" s="249"/>
+      <c r="AE59" s="249"/>
+      <c r="AF59" s="249"/>
+      <c r="AG59" s="249"/>
+      <c r="AH59" s="249"/>
+      <c r="AI59" s="249"/>
+      <c r="AJ59" s="249"/>
+      <c r="AK59" s="249"/>
+      <c r="AL59" s="249"/>
+      <c r="AM59" s="249"/>
+      <c r="AN59" s="249"/>
+      <c r="AO59" s="249"/>
+      <c r="AP59" s="249"/>
+      <c r="AQ59" s="249"/>
+      <c r="AR59" s="250"/>
       <c r="AS59" s="31"/>
     </row>
     <row r="60" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -61593,6 +61681,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N41:AC41"/>
+    <mergeCell ref="N30:AC30"/>
+    <mergeCell ref="N39:AC39"/>
+    <mergeCell ref="N37:AC37"/>
+    <mergeCell ref="N33:AC33"/>
+    <mergeCell ref="N35:AC35"/>
     <mergeCell ref="C59:AR59"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="AK4:AN4"/>
@@ -61609,12 +61703,6 @@
     <mergeCell ref="N43:AC43"/>
     <mergeCell ref="N47:AC47"/>
     <mergeCell ref="N28:AC28"/>
-    <mergeCell ref="N41:AC41"/>
-    <mergeCell ref="N30:AC30"/>
-    <mergeCell ref="N39:AC39"/>
-    <mergeCell ref="N37:AC37"/>
-    <mergeCell ref="N33:AC33"/>
-    <mergeCell ref="N35:AC35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -61644,14 +61732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="397" t="s">
+      <c r="B1" s="387" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="228"/>
       <c r="D1" s="228"/>
       <c r="E1" s="228"/>
       <c r="F1" s="228"/>
-      <c r="G1" s="398"/>
+      <c r="G1" s="388"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="6"/>
@@ -61732,15 +61820,15 @@
       </c>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
-      <c r="AL2" s="386" t="s">
+      <c r="AL2" s="391" t="s">
         <v>34</v>
       </c>
-      <c r="AM2" s="386"/>
-      <c r="AN2" s="386"/>
-      <c r="AO2" s="386"/>
-      <c r="AP2" s="386"/>
-      <c r="AQ2" s="386"/>
-      <c r="AR2" s="387"/>
+      <c r="AM2" s="391"/>
+      <c r="AN2" s="391"/>
+      <c r="AO2" s="391"/>
+      <c r="AP2" s="391"/>
+      <c r="AQ2" s="391"/>
+      <c r="AR2" s="392"/>
     </row>
     <row r="3" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="231"/>
@@ -61778,13 +61866,13 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
-      <c r="AL3" s="386"/>
-      <c r="AM3" s="386"/>
-      <c r="AN3" s="386"/>
-      <c r="AO3" s="386"/>
-      <c r="AP3" s="386"/>
-      <c r="AQ3" s="386"/>
-      <c r="AR3" s="387"/>
+      <c r="AL3" s="391"/>
+      <c r="AM3" s="391"/>
+      <c r="AN3" s="391"/>
+      <c r="AO3" s="391"/>
+      <c r="AP3" s="391"/>
+      <c r="AQ3" s="391"/>
+      <c r="AR3" s="392"/>
     </row>
     <row r="4" spans="2:44" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="234"/>
@@ -61823,13 +61911,13 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
-      <c r="AL4" s="388"/>
-      <c r="AM4" s="388"/>
-      <c r="AN4" s="388"/>
-      <c r="AO4" s="388"/>
-      <c r="AP4" s="388"/>
-      <c r="AQ4" s="388"/>
-      <c r="AR4" s="389"/>
+      <c r="AL4" s="393"/>
+      <c r="AM4" s="393"/>
+      <c r="AN4" s="393"/>
+      <c r="AO4" s="393"/>
+      <c r="AP4" s="393"/>
+      <c r="AQ4" s="393"/>
+      <c r="AR4" s="394"/>
     </row>
     <row r="5" spans="2:44" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
@@ -61877,51 +61965,51 @@
       <c r="AR5" s="14"/>
     </row>
     <row r="6" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="390" t="s">
+      <c r="B6" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="391"/>
-      <c r="D6" s="390"/>
-      <c r="E6" s="392"/>
-      <c r="F6" s="392"/>
-      <c r="G6" s="392"/>
-      <c r="H6" s="392"/>
-      <c r="I6" s="392"/>
-      <c r="J6" s="392"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="390"/>
-      <c r="M6" s="392"/>
-      <c r="N6" s="392"/>
-      <c r="O6" s="392"/>
-      <c r="P6" s="392"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="393"/>
-      <c r="S6" s="394"/>
-      <c r="T6" s="394"/>
-      <c r="U6" s="395"/>
-      <c r="V6" s="390"/>
-      <c r="W6" s="392"/>
-      <c r="X6" s="392"/>
-      <c r="Y6" s="392"/>
-      <c r="Z6" s="391"/>
-      <c r="AA6" s="390"/>
-      <c r="AB6" s="392"/>
-      <c r="AC6" s="392"/>
-      <c r="AD6" s="392"/>
-      <c r="AE6" s="392"/>
-      <c r="AF6" s="391"/>
-      <c r="AG6" s="390"/>
-      <c r="AH6" s="392"/>
-      <c r="AI6" s="392"/>
-      <c r="AJ6" s="392"/>
-      <c r="AK6" s="392"/>
-      <c r="AL6" s="391"/>
-      <c r="AM6" s="390"/>
-      <c r="AN6" s="392"/>
-      <c r="AO6" s="392"/>
-      <c r="AP6" s="392"/>
-      <c r="AQ6" s="392"/>
-      <c r="AR6" s="391"/>
+      <c r="C6" s="396"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="397"/>
+      <c r="G6" s="397"/>
+      <c r="H6" s="397"/>
+      <c r="I6" s="397"/>
+      <c r="J6" s="397"/>
+      <c r="K6" s="396"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="397"/>
+      <c r="N6" s="397"/>
+      <c r="O6" s="397"/>
+      <c r="P6" s="397"/>
+      <c r="Q6" s="396"/>
+      <c r="R6" s="398"/>
+      <c r="S6" s="399"/>
+      <c r="T6" s="399"/>
+      <c r="U6" s="400"/>
+      <c r="V6" s="395"/>
+      <c r="W6" s="397"/>
+      <c r="X6" s="397"/>
+      <c r="Y6" s="397"/>
+      <c r="Z6" s="396"/>
+      <c r="AA6" s="395"/>
+      <c r="AB6" s="397"/>
+      <c r="AC6" s="397"/>
+      <c r="AD6" s="397"/>
+      <c r="AE6" s="397"/>
+      <c r="AF6" s="396"/>
+      <c r="AG6" s="395"/>
+      <c r="AH6" s="397"/>
+      <c r="AI6" s="397"/>
+      <c r="AJ6" s="397"/>
+      <c r="AK6" s="397"/>
+      <c r="AL6" s="396"/>
+      <c r="AM6" s="395"/>
+      <c r="AN6" s="397"/>
+      <c r="AO6" s="397"/>
+      <c r="AP6" s="397"/>
+      <c r="AQ6" s="397"/>
+      <c r="AR6" s="396"/>
     </row>
     <row r="7" spans="2:44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -61935,30 +62023,30 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="396"/>
-      <c r="N7" s="396"/>
-      <c r="O7" s="396"/>
-      <c r="P7" s="396"/>
-      <c r="Q7" s="396"/>
-      <c r="R7" s="396"/>
-      <c r="S7" s="396"/>
-      <c r="T7" s="396"/>
-      <c r="U7" s="396"/>
-      <c r="V7" s="396"/>
-      <c r="W7" s="396"/>
-      <c r="X7" s="396"/>
-      <c r="Y7" s="396"/>
-      <c r="Z7" s="396"/>
-      <c r="AA7" s="396"/>
-      <c r="AB7" s="396"/>
-      <c r="AC7" s="396"/>
-      <c r="AD7" s="396"/>
-      <c r="AE7" s="396"/>
-      <c r="AF7" s="396"/>
-      <c r="AG7" s="396"/>
-      <c r="AH7" s="396"/>
-      <c r="AI7" s="396"/>
-      <c r="AJ7" s="396"/>
+      <c r="M7" s="386"/>
+      <c r="N7" s="386"/>
+      <c r="O7" s="386"/>
+      <c r="P7" s="386"/>
+      <c r="Q7" s="386"/>
+      <c r="R7" s="386"/>
+      <c r="S7" s="386"/>
+      <c r="T7" s="386"/>
+      <c r="U7" s="386"/>
+      <c r="V7" s="386"/>
+      <c r="W7" s="386"/>
+      <c r="X7" s="386"/>
+      <c r="Y7" s="386"/>
+      <c r="Z7" s="386"/>
+      <c r="AA7" s="386"/>
+      <c r="AB7" s="386"/>
+      <c r="AC7" s="386"/>
+      <c r="AD7" s="386"/>
+      <c r="AE7" s="386"/>
+      <c r="AF7" s="386"/>
+      <c r="AG7" s="386"/>
+      <c r="AH7" s="386"/>
+      <c r="AI7" s="386"/>
+      <c r="AJ7" s="386"/>
       <c r="AK7" s="13"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="13"/>
@@ -61976,36 +62064,36 @@
       <c r="F8" s="13"/>
       <c r="G8" s="20"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="399" t="s">
+      <c r="I8" s="389" t="s">
         <v>377</v>
       </c>
-      <c r="J8" s="399"/>
-      <c r="K8" s="399"/>
-      <c r="L8" s="399"/>
-      <c r="M8" s="399"/>
-      <c r="N8" s="399"/>
-      <c r="O8" s="399"/>
-      <c r="P8" s="399"/>
-      <c r="Q8" s="399"/>
-      <c r="R8" s="399"/>
-      <c r="S8" s="399"/>
-      <c r="T8" s="399"/>
-      <c r="U8" s="399"/>
-      <c r="V8" s="399"/>
-      <c r="W8" s="399"/>
-      <c r="X8" s="399"/>
-      <c r="Y8" s="399"/>
-      <c r="Z8" s="399"/>
-      <c r="AA8" s="399"/>
-      <c r="AB8" s="399"/>
-      <c r="AC8" s="399"/>
-      <c r="AD8" s="399"/>
-      <c r="AE8" s="399"/>
-      <c r="AF8" s="399"/>
-      <c r="AG8" s="399"/>
-      <c r="AH8" s="399"/>
-      <c r="AI8" s="399"/>
-      <c r="AJ8" s="399"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="389"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="389"/>
+      <c r="P8" s="389"/>
+      <c r="Q8" s="389"/>
+      <c r="R8" s="389"/>
+      <c r="S8" s="389"/>
+      <c r="T8" s="389"/>
+      <c r="U8" s="389"/>
+      <c r="V8" s="389"/>
+      <c r="W8" s="389"/>
+      <c r="X8" s="389"/>
+      <c r="Y8" s="389"/>
+      <c r="Z8" s="389"/>
+      <c r="AA8" s="389"/>
+      <c r="AB8" s="389"/>
+      <c r="AC8" s="389"/>
+      <c r="AD8" s="389"/>
+      <c r="AE8" s="389"/>
+      <c r="AF8" s="389"/>
+      <c r="AG8" s="389"/>
+      <c r="AH8" s="389"/>
+      <c r="AI8" s="389"/>
+      <c r="AJ8" s="389"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="13"/>
       <c r="AM8" s="13"/>
@@ -62066,14 +62154,14 @@
       <c r="L10" s="159" t="s">
         <v>378</v>
       </c>
-      <c r="M10" s="400" t="s">
+      <c r="M10" s="390" t="s">
         <v>379</v>
       </c>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="256"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="257"/>
+      <c r="R10" s="258"/>
       <c r="S10" s="188"/>
       <c r="T10" s="188"/>
       <c r="U10" s="162" t="s">
@@ -62111,14 +62199,14 @@
       <c r="L11" s="159" t="s">
         <v>384</v>
       </c>
-      <c r="M11" s="254" t="s">
+      <c r="M11" s="256" t="s">
         <v>385</v>
       </c>
-      <c r="N11" s="255"/>
-      <c r="O11" s="255"/>
-      <c r="P11" s="255"/>
-      <c r="Q11" s="255"/>
-      <c r="R11" s="256"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="258"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -64259,13 +64347,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V10:AD10"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="M7:AJ7"/>
-    <mergeCell ref="B1:G4"/>
-    <mergeCell ref="I8:AJ8"/>
-    <mergeCell ref="M10:R10"/>
     <mergeCell ref="AL2:AR4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:K6"/>
@@ -64275,6 +64356,13 @@
     <mergeCell ref="AA6:AF6"/>
     <mergeCell ref="AG6:AL6"/>
     <mergeCell ref="AM6:AR6"/>
+    <mergeCell ref="V10:AD10"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="M7:AJ7"/>
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="I8:AJ8"/>
+    <mergeCell ref="M10:R10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:M13">
@@ -64704,22 +64792,22 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="264"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="264"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
-      <c r="Y10" s="264"/>
-      <c r="Z10" s="264"/>
-      <c r="AA10" s="264"/>
-      <c r="AB10" s="264"/>
-      <c r="AC10" s="264"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="255"/>
+      <c r="S10" s="255"/>
+      <c r="T10" s="255"/>
+      <c r="U10" s="255"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="255"/>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="255"/>
+      <c r="Z10" s="255"/>
+      <c r="AA10" s="255"/>
+      <c r="AB10" s="255"/>
+      <c r="AC10" s="255"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
@@ -65536,22 +65624,22 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="264"/>
-      <c r="O30" s="264"/>
-      <c r="P30" s="264"/>
-      <c r="Q30" s="264"/>
-      <c r="R30" s="264"/>
-      <c r="S30" s="264"/>
-      <c r="T30" s="264"/>
-      <c r="U30" s="264"/>
-      <c r="V30" s="264"/>
-      <c r="W30" s="264"/>
-      <c r="X30" s="264"/>
-      <c r="Y30" s="264"/>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="264"/>
-      <c r="AB30" s="264"/>
-      <c r="AC30" s="264"/>
+      <c r="N30" s="255"/>
+      <c r="O30" s="255"/>
+      <c r="P30" s="255"/>
+      <c r="Q30" s="255"/>
+      <c r="R30" s="255"/>
+      <c r="S30" s="255"/>
+      <c r="T30" s="255"/>
+      <c r="U30" s="255"/>
+      <c r="V30" s="255"/>
+      <c r="W30" s="255"/>
+      <c r="X30" s="255"/>
+      <c r="Y30" s="255"/>
+      <c r="Z30" s="255"/>
+      <c r="AA30" s="255"/>
+      <c r="AB30" s="255"/>
+      <c r="AC30" s="255"/>
       <c r="AD30" s="38"/>
       <c r="AE30" s="38"/>
       <c r="AF30" s="38"/>
@@ -67065,24 +67153,24 @@
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="260" t="s">
+      <c r="N15" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="261"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="261"/>
-      <c r="R15" s="261"/>
-      <c r="S15" s="261"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="261"/>
-      <c r="V15" s="261"/>
-      <c r="W15" s="261"/>
-      <c r="X15" s="261"/>
-      <c r="Y15" s="261"/>
-      <c r="Z15" s="261"/>
-      <c r="AA15" s="261"/>
-      <c r="AB15" s="261"/>
-      <c r="AC15" s="262"/>
+      <c r="O15" s="252"/>
+      <c r="P15" s="252"/>
+      <c r="Q15" s="252"/>
+      <c r="R15" s="252"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="252"/>
+      <c r="U15" s="252"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="252"/>
+      <c r="X15" s="252"/>
+      <c r="Y15" s="252"/>
+      <c r="Z15" s="252"/>
+      <c r="AA15" s="252"/>
+      <c r="AB15" s="252"/>
+      <c r="AC15" s="253"/>
       <c r="AD15" s="38"/>
       <c r="AE15" s="38"/>
       <c r="AF15" s="38"/>
@@ -67179,24 +67267,24 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="260" t="s">
+      <c r="N18" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="261"/>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="261"/>
-      <c r="R18" s="261"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="261"/>
-      <c r="V18" s="261"/>
-      <c r="W18" s="261"/>
-      <c r="X18" s="261"/>
-      <c r="Y18" s="261"/>
-      <c r="Z18" s="261"/>
-      <c r="AA18" s="261"/>
-      <c r="AB18" s="261"/>
-      <c r="AC18" s="262"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="252"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="252"/>
+      <c r="T18" s="252"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="252"/>
+      <c r="Y18" s="252"/>
+      <c r="Z18" s="252"/>
+      <c r="AA18" s="252"/>
+      <c r="AB18" s="252"/>
+      <c r="AC18" s="253"/>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
